--- a/Ficheiros TFRecord.xlsx
+++ b/Ficheiros TFRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19055C6-8F0A-426F-A636-7474E5FE53AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2A144-7173-424A-A726-A6E4422E6814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FC2A4DF-2B68-4C50-8073-1959CD3C2C20}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75817665-7D85-4519-99EA-E6D363A2E5AD}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Ficheiros TFRecord.xlsx
+++ b/Ficheiros TFRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA2A144-7173-424A-A726-A6E4422E6814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912993B5-ED59-4E3D-A93E-4DC163DB526E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3FC2A4DF-2B68-4C50-8073-1959CD3C2C20}"/>
   </bookViews>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75817665-7D85-4519-99EA-E6D363A2E5AD}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
